--- a/统计.xlsx
+++ b/统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="已完" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">二上!$A$1:$A$631</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">二下!$A$1:$A$1384</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">二下!$A$1:$A$1385</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">三上!$A$1:$A$1777</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">三下!$A$1:$A$469</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">一下!$A$1:$A$549</definedName>
     <definedName name="项">二上!$D$458:$N$477</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="2175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4076" uniqueCount="2176">
   <si>
     <t>一</t>
   </si>
@@ -6558,6 +6559,10 @@
   </si>
   <si>
     <t>烘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6936,10 +6941,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D1437"/>
+  <dimension ref="A1:D1853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1374" workbookViewId="0">
-      <selection activeCell="A1384" sqref="A1384"/>
+    <sheetView topLeftCell="A1842" workbookViewId="0">
+      <selection activeCell="A1854" sqref="A1854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14187,167 +14192,2348 @@
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1384" s="7" t="s">
-        <v>1288</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1385"/>
+      <c r="A1385" s="7" t="s">
+        <v>1708</v>
+      </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1386"/>
+      <c r="A1386" s="7" t="s">
+        <v>1709</v>
+      </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1387"/>
+      <c r="A1387" s="7" t="s">
+        <v>1710</v>
+      </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1388"/>
+      <c r="A1388" s="7" t="s">
+        <v>1711</v>
+      </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1389"/>
+      <c r="A1389" s="7" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1390"/>
+      <c r="A1390" s="7" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1391"/>
+      <c r="A1391" s="7" t="s">
+        <v>1713</v>
+      </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1392"/>
+      <c r="A1392" s="7" t="s">
+        <v>1714</v>
+      </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1393"/>
+      <c r="A1393" s="7" t="s">
+        <v>1715</v>
+      </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1394"/>
+      <c r="A1394" s="7" t="s">
+        <v>1716</v>
+      </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1395"/>
+      <c r="A1395" s="7" t="s">
+        <v>1717</v>
+      </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1396"/>
+      <c r="A1396" s="7" t="s">
+        <v>1718</v>
+      </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1397"/>
+      <c r="A1397" s="7" t="s">
+        <v>1719</v>
+      </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1398"/>
+      <c r="A1398" s="7" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1399"/>
+      <c r="A1399" s="7" t="s">
+        <v>1721</v>
+      </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1400"/>
+      <c r="A1400" s="7" t="s">
+        <v>1722</v>
+      </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1401"/>
+      <c r="A1401" s="7" t="s">
+        <v>1723</v>
+      </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1402"/>
+      <c r="A1402" s="7" t="s">
+        <v>1724</v>
+      </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1403"/>
+      <c r="A1403" s="7" t="s">
+        <v>1725</v>
+      </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1404"/>
+      <c r="A1404" s="7" t="s">
+        <v>1726</v>
+      </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1405"/>
+      <c r="A1405" s="7" t="s">
+        <v>1727</v>
+      </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1406"/>
+      <c r="A1406" s="7" t="s">
+        <v>1728</v>
+      </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1407"/>
+      <c r="A1407" s="7" t="s">
+        <v>1729</v>
+      </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1408"/>
+      <c r="A1408" s="7" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1409"/>
+      <c r="A1409" s="7" t="s">
+        <v>1730</v>
+      </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1410"/>
+      <c r="A1410" s="7" t="s">
+        <v>1731</v>
+      </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1411"/>
+      <c r="A1411" s="7" t="s">
+        <v>1732</v>
+      </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1412"/>
+      <c r="A1412" s="7" t="s">
+        <v>1733</v>
+      </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1413"/>
+      <c r="A1413" s="7" t="s">
+        <v>1734</v>
+      </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1414"/>
+      <c r="A1414" s="7" t="s">
+        <v>1735</v>
+      </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1415"/>
+      <c r="A1415" s="7" t="s">
+        <v>1736</v>
+      </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1416"/>
+      <c r="A1416" s="7" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1417"/>
+      <c r="A1417" s="7" t="s">
+        <v>1738</v>
+      </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1418"/>
+      <c r="A1418" s="7" t="s">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1419"/>
+      <c r="A1419" s="7" t="s">
+        <v>1740</v>
+      </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1420"/>
+      <c r="A1420" s="7" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1421"/>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1422"/>
+      <c r="A1421" s="7" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1423"/>
+      <c r="A1423" s="7" t="s">
+        <v>1743</v>
+      </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1424"/>
+      <c r="A1424" s="7" t="s">
+        <v>1744</v>
+      </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1425"/>
+      <c r="A1425" s="7" t="s">
+        <v>1745</v>
+      </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1426"/>
+      <c r="A1426" s="7" t="s">
+        <v>1746</v>
+      </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1427"/>
+      <c r="A1427" s="7" t="s">
+        <v>1747</v>
+      </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1428"/>
+      <c r="A1428" s="7" t="s">
+        <v>1748</v>
+      </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1429"/>
+      <c r="A1429" s="7" t="s">
+        <v>1749</v>
+      </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1430"/>
+      <c r="A1430" s="7" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1431"/>
+      <c r="A1431" s="7" t="s">
+        <v>1750</v>
+      </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1432"/>
+      <c r="A1432" s="7" t="s">
+        <v>1751</v>
+      </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1433"/>
+      <c r="A1433" s="7" t="s">
+        <v>1752</v>
+      </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1434"/>
+      <c r="A1434" s="7" t="s">
+        <v>1753</v>
+      </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1435"/>
+      <c r="A1435" s="7" t="s">
+        <v>1754</v>
+      </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1436"/>
+      <c r="A1436" s="7" t="s">
+        <v>1755</v>
+      </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1437"/>
+      <c r="A1437" s="7" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1438" s="7" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1439" s="7" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1440" s="7" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1441" s="7" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1442" s="7" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1443" s="7" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1444" s="7" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1445" s="7" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1446" s="7" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1447" s="7" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1448" s="7" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1449" s="7" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1450" s="7" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1451" s="7" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1452" s="7" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1453" s="7" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1454" s="7" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1455" s="7" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1456" s="7" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1457" s="7" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1458" s="7" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1459" s="7" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1460" s="7" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1461" s="7" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1462" s="7" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1463" s="7" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1464" s="7" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1465" s="7" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1466" s="7" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1467" s="7" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1468" s="7" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1469" s="7" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1470" s="7" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1471" s="7" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1472" s="7" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1473" s="7" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1474" s="7" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1475" s="7" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1476" s="7" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1477" s="7" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1478" s="7" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1479" s="7" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1480" s="7" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1481" s="7" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1482" s="7" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1483" s="7" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1484" s="7" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1485" s="7" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1486" s="7" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1487" s="7" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1488" s="7" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1489" s="7" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1490" s="7" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1491" s="7" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1492" s="7" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1493" s="7" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1494" s="7" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1495" s="7" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1496" s="7" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1497" s="7" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1498" s="7" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1499" s="7" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1500" s="7" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1501" s="7" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1502" s="7" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1503" s="7" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1504" s="7" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1505" s="7" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1506" s="7" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1507" s="7" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1508" s="7" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1509" s="7" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1510" s="7" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1511" s="7" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1512" s="7" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1513" s="7" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1514" s="7" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1515" s="7" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1516" s="7" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1517" s="7" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1518" s="7" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1519" s="7" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1520" s="7" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1521" s="7" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1522" s="7" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1523" s="7" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1524" s="7" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1525" s="7" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1526" s="7" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1527" s="7" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1528" s="7" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1529" s="7" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1530" s="7" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1531" s="7" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1532" s="7" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1533" s="7" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1534" s="7" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1535" s="7" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1536" s="7" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1537" s="7" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1538" s="7" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1539" s="7" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1540" s="7" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1541" s="7" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1542" s="7" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1543" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1544" s="7" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1545" s="7" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1546" s="7" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1547" s="7" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1548" s="7" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1549" s="7" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1550" s="7" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1551" s="7" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1552" s="7" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1553" s="7" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1554" s="7" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1555" s="7" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1556" s="7" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1557" s="7" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1558" s="7" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1559" s="7" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1560" s="7" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1561" s="7" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1562" s="7" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1563" s="7" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1564" s="7" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1565" s="7" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1566" s="7" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1567" s="7" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1568" s="7" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1569" s="7" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1570" s="7" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1571" s="7" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1572" s="7" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1573" s="7" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1574" s="7" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1575" s="7" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1576" s="7" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1577" s="7" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1578" s="7" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1579" s="7" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1580" s="7" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1581" s="7" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1582" s="7" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1583" s="7" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1584" s="7" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1585" s="7" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1586" s="7" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1587" s="7" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1588" s="7" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1589" s="7" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1590" s="7" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1591" s="7" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1592" s="7" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1593" s="7" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1594" s="7" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1595" s="7" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1596" s="7" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1597" s="7" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1598" s="7" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1599" s="7" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1600" s="7" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1601" s="7" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1602" s="7" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1603" s="7" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1604" s="7" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1605" s="7" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1606" s="7" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1607" s="7" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1608" s="7" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1609" s="7" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1610" s="7" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1611" s="7" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1612" s="7" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1613" s="7" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1614" s="7" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1615" s="7" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1616" s="7" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1617" s="7" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1618" s="7" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1619" s="7" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1620" s="7" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1621" s="7" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1622" s="7" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1623" s="7" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1624" s="7" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1625" s="7" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1626" s="7" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1627" s="7" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1628" s="7" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1629" s="7" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1630" s="7" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1631" s="7" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1632" s="7" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1633" s="7" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1634" s="7" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1635" s="7" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1636" s="7" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1637" s="7" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1638" s="7" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1639" s="7" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1640" s="7" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1641" s="7" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1642" s="7" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1643" s="7" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1644" s="7" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1645" s="7" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1646" s="7" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1647" s="7" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1648" s="7" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1649" s="7" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1650" s="7" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1651" s="7" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1652" s="7" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1653" s="7" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1654" s="7" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1655" s="7" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1656" s="7" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1657" s="7" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1658" s="7" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1659" s="7" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1660" s="7" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1661" s="7" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1662" s="7" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1663" s="7" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1664" s="7" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1665" s="7" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1666" s="7" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1667" s="7" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1668" s="7" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1669" s="7" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1670" s="7" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1671" s="7" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1672" s="7" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1673" s="7" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1674" s="7" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1675" s="7" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1676" s="7" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1677" s="7" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1678" s="7" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1679" s="7" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1680" s="7" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1681" s="7" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1682" s="7" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1683" s="7" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1684" s="7" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1685" s="7" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1686" s="7" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1687" s="7" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1688" s="7" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1689" s="7" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1690" s="7" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1691" s="7" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1692" s="7" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1693" s="7" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1694" s="7" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1695" s="7" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1696" s="7" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1697" s="7" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1698" s="7" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1699" s="7" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1700" s="7" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1701" s="7" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1702" s="7" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1703" s="7" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1704" s="7" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1705" s="7" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1706" s="7" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1707" s="7" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1708" s="7" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1709" s="7" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1710" s="7" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1711" s="7" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1712" s="7" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1713" s="7" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1714" s="7" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1715" s="7" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1716" s="7" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1717" s="7" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1718" s="7" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1719" s="7" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1720" s="7" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1721" s="7" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1722" s="7" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1723" s="7" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1724" s="7" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1725" s="7" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1726" s="7" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1727" s="7" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1728" s="7" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1729" s="7" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1730" s="7" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1731" s="7" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1732" s="7" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1733" s="7" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1734" s="7" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1735" s="7" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1736" s="7" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1737" s="7" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1738" s="7" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1739" s="7" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1740" s="7" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1741" s="7" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1742" s="7" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1743" s="7" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1744" s="7" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1745" s="7" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1746" s="7" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1747" s="7" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1748" s="7" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1749" s="7" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1750" s="7" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1751" s="7" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1752" s="7" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1753" s="7" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1754" s="7" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1755" s="7" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1756" s="7" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1757" s="7" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1758" s="7" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1759" s="7" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1760" s="7" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1761" s="7" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1762" s="7" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1763" s="7" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1764" s="7" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1765" s="7" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1766" s="7" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1767" s="7" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1768" s="7" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1769" s="7" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1770" s="7" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1771" s="7" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1772" s="7" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1773" s="7" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1774" s="7" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1775" s="7" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1776" s="7" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1777" s="7" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1778" s="7" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1779" s="2" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1780" s="2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1781" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1782" s="2" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1783" s="2" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1784" s="2" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1785" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1786" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1787" s="2" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1788" s="2" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1789" s="2" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1790" s="2" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1791" s="2" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1792" s="2" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1793" s="2" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1794" s="2" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1795" s="2" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1796" s="2" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1797" s="2" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1798" s="2" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1799" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1800" s="2" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1801" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1802" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1803" s="2" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1804" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1805" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1806" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1807" s="2" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1808" s="2" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1809" s="2" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1810" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1811" s="2" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1812" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1813" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1814" s="2" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1815" s="2" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1816" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1817" s="2" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1818" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1819" s="2" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1820" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1821" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1822" s="2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1823" s="2" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1824" s="2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1825" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1826" s="2" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1827" s="2" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1828" s="2" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1829" s="2" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1830" s="2" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1831" s="2" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1832" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1833" s="2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1834" s="2" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1835" s="2" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1836" s="2" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1837" s="2" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1838" s="2" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1839" s="2" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1840" s="2" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1841" s="2" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1842" s="2" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1843" s="2" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1844" s="2" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1845" s="2" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1846" s="2" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1847" s="2" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1848" s="2" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1849" s="2" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1850" s="2" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1851" s="2" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1852" s="2" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1853" s="2" t="s">
+        <v>1375</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="D1:D323">
@@ -16811,7 +18997,7 @@
   <dimension ref="B1:D631"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266:B497"/>
+      <selection activeCell="F486" sqref="F486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19718,10 +21904,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:C1384"/>
+  <dimension ref="B1:C1385"/>
   <sheetViews>
-    <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404"/>
+    <sheetView topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279:B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21109,593 +23295,590 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B278" s="7" t="s">
-        <v>1967</v>
-      </c>
-    </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B279" s="7" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B280" s="7" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B281" s="7" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B282" s="7" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B283" s="7" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B284" s="7" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B285" s="7" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B286" s="7" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B287" s="7" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B288" s="7" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B289" s="7" t="s">
-        <v>2173</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B290" s="7" t="s">
-        <v>1978</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B291" s="7" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B292" s="7" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B293" s="7" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B294" s="7" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B295" s="7" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B296" s="7" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B297" s="7" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B298" s="7" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B299" s="7" t="s">
-        <v>2174</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B300" s="7" t="s">
-        <v>1336</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B301" s="7" t="s">
-        <v>1987</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B302" s="7" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B303" s="7" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B304" s="7" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B305" s="7" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B306" s="7" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B307" s="7" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B308" s="7" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B309" s="7" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B310" s="7" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B311" s="7" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B312" s="7" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B313" s="7" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B314" s="7" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B315" s="7" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B316" s="7" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B317" s="7" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B318" s="7" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B319" s="7" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B320" s="7" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B321" s="7" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B322" s="7" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B323" s="7" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B324" s="7" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B325" s="7" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B326" s="7" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B327" s="7" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B328" s="7" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B329" s="7" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B330" s="7" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B331" s="7" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B332" s="7" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B333" s="7" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B334" s="7" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B335" s="7" t="s">
-        <v>1376</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B336" s="7" t="s">
-        <v>2021</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B337" s="7" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B338" s="7" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B339" s="7" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B340" s="7" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B341" s="7" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B342" s="7" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B343" s="7" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B344" s="7" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B345" s="7" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B346" s="7" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B347" s="7" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B348" s="7" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B349" s="7" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B350" s="7" t="s">
-        <v>1327</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B351" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B352" s="7" t="s">
-        <v>2035</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B353" s="7" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B354" s="7" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B355" s="7" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B356" s="7" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B357" s="7" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B358" s="7" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B359" s="7" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B360" s="7" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B361" s="7" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B362" s="7" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B363" s="7" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B364" s="7" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B365" s="7" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B366" s="7" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B367" s="7" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B368" s="7" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B369" s="7" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B370" s="7" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B371" s="7" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B372" s="7" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B373" s="7" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B374" s="7" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B375" s="7" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B376" s="7" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B377" s="7" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B378" s="7" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B379" s="7" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B380" s="7" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B381" s="7" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B382" s="7" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B383" s="7" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B384" s="7" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B385" s="7" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B386" s="7" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B387" s="7" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B388" s="7" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B389" s="7" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B390" s="7" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B391" s="7" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B392" s="7" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B393" s="7" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B394" s="7" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B395" s="7" t="s">
         <v>2085</v>
       </c>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B395"/>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B396"/>
@@ -24663,6 +26846,9 @@
     </row>
     <row r="1384" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1384"/>
+    </row>
+    <row r="1385" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1385"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -24676,8 +26862,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:D1777"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25133,6 +27319,7 @@
       <c r="B75" s="2" t="s">
         <v>1375</v>
       </c>
+      <c r="C75" s="5"/>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
@@ -31892,8 +34079,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E1980"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E199" sqref="E199"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -4,33 +4,33 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="已完" sheetId="1" r:id="rId1"/>
-    <sheet name="一下" sheetId="3" r:id="rId2"/>
-    <sheet name="二上" sheetId="4" r:id="rId3"/>
-    <sheet name="二下" sheetId="5" r:id="rId4"/>
-    <sheet name="三上" sheetId="6" r:id="rId5"/>
-    <sheet name="三下" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
+    <sheet name="一上" sheetId="10" r:id="rId2"/>
+    <sheet name="一下" sheetId="3" r:id="rId3"/>
+    <sheet name="二上" sheetId="4" r:id="rId4"/>
+    <sheet name="二下" sheetId="5" r:id="rId5"/>
+    <sheet name="三上" sheetId="6" r:id="rId6"/>
+    <sheet name="三下" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
+    <sheet name="书法比较" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">二上!$A$1:$A$631</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">二下!$A$1:$A$1385</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">三上!$A$1:$A$1777</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">三下!$A$1:$A$469</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">一下!$A$1:$A$549</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">二上!$A$1:$A$631</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">二下!$A$1:$A$1385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">三上!$A$1:$A$1777</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">三下!$A$1:$A$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">一下!$A$1:$A$549</definedName>
     <definedName name="项">二上!$D$458:$N$477</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4076" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4881" uniqueCount="2185">
   <si>
     <t>一</t>
   </si>
@@ -6563,6 +6563,43 @@
   </si>
   <si>
     <t>化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典行书简</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新硬笔行书简</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田英章楷书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">您设置一下这个试试
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6573,7 +6610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\/m\/d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6594,6 +6631,55 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="经典行书简"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="田英章楷书"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="田英章楷书"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="经典行书简"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="全新硬笔行书简"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="田英章楷书"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6622,7 +6708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6638,6 +6724,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6941,10 +7049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D1853"/>
+  <dimension ref="A1:D2173"/>
   <sheetViews>
-    <sheetView topLeftCell="A1842" workbookViewId="0">
-      <selection activeCell="A1854" sqref="A1854"/>
+    <sheetView tabSelected="1" topLeftCell="A2047" workbookViewId="0">
+      <selection activeCell="C2071" sqref="C2071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16533,6 +16641,1606 @@
     <row r="1853" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1853" s="2" t="s">
         <v>1375</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1854" s="2" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1855" s="2" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1856" s="2" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1857" s="2" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1858" s="2" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1859" s="2" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1860" s="2" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1861" s="2" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1862" s="2" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1863" s="2" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1864" s="2" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1865" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1866" s="2" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1867" s="2" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1868" s="2" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1869" s="2" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1870" s="2" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1871" s="2" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1872" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1873" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1874" s="2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1875" s="2" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1876" s="2" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1877" s="2" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1878" s="2" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1879" s="2" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1880" s="2" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1881" s="2" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1882" s="2" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1883" s="2" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1884" s="2" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1885" s="2" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1886" s="2" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1887" s="2" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1888" s="2" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1889" s="2" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1890" s="2" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1891" s="2" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1892" s="2" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1893" s="2" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1894" s="2" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1895" s="2" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1896" s="2" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1897" s="2" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1898" s="2" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1899" s="2" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1900" s="2" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1901" s="2" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1902" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1903" s="2" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1904" s="2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1905" s="2" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1906" s="2" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1907" s="2" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1908" s="2" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1909" s="2" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1910" s="2" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1911" s="2" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1912" s="2" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1913" s="2" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1914" s="2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1915" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1916" s="2" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1917" s="2" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1918" s="2" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1919" s="2" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1920" s="2" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1921" s="2" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1922" s="2" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1923" s="2" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1924" s="2" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1925" s="2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1926" s="2" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1927" s="2" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1928" s="2" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1929" s="2" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1930" s="2" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1931" s="2" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1932" s="2" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1933" s="2" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1934" s="2" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1935" s="2" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1936" s="2" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1937" s="2" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1938" s="2" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1939" s="2" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1940" s="2" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1941" s="2" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1942" s="2" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1943" s="2" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1944" s="2" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1945" s="2" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1946" s="2" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1947" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1948" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1949" s="2" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1950" s="2" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1951" s="2" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1952" s="2" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1953" s="2" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1954" s="2" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1955" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1956" s="2" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1957" s="2" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1958" s="2" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1959" s="2" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1960" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1961" s="2" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1962" s="2" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1963" s="2" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1964" s="2" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1965" s="2" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1966" s="2" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1967" s="2" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1968" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1969" s="2" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1970" s="2" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1971" s="2" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1972" s="2" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1973" s="2" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1974" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1975" s="2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1976" s="2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1977" s="2" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1978" s="2" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1979" s="2" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1980" s="2" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1981" s="7" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1982" s="7" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1983" s="7" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1984" s="7" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1985" s="7" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1986" s="7" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1987" s="7" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1988" s="7" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1989" s="7" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1990" s="7" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1991" s="7" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1992" s="7" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1993" s="7" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1994" s="7" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1995" s="7" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1996" s="7" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1997" s="7" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1998" s="7" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1999" s="7" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2000" s="7" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2001" s="7" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2002" s="7" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2003" s="7" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2004" s="7" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2005" s="7" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2006" s="7" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2007" s="7" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2008" s="7" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2009" s="7" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2010" s="7" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2011" s="7" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2012" s="7" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2013" s="7" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2014" s="7" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2015" s="7" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2016" s="7" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2017" s="7" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2018" s="7" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2019" s="7" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2020" s="7" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2021" s="7" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2022" s="7" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2023" s="7" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2024" s="7" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2025" s="7" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2026" s="7" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2027" s="7" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2028" s="7" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2029" s="7" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2030" s="7" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2031" s="7" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2032" s="7" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2033" s="7" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2034" s="7" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2035" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2036" s="7" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2037" s="7" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2038" s="7" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2039" s="7" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2040" s="7" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2041" s="7" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2042" s="7" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2043" s="7" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2044" s="7" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2045" s="7" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2046" s="7" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2047" s="7" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2048" s="7" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2049" s="7" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2050" s="7" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2051" s="7" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2052" s="7" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2053" s="7" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2054" s="7" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2055" s="7" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2056" s="7" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2057" s="7" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2058" s="7" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2059" s="7" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2060" s="7" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2061" s="7" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2062" s="7" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2063" s="7" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2064" s="7" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2065" s="7" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2066" s="7" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2067" s="7" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2068" s="7" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2069" s="7" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2070" s="7" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2071" s="7" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2072" s="7" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2073" s="7" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2074" s="7" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2075" s="7" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2076" s="7" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2077" s="7" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2078" s="7" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2079" s="7" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2080" s="7" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2081" s="7" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2082" s="7" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2083" s="7" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2084" s="7" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2085" s="7" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2086" s="7" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2087" s="7" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2088" s="7" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2089" s="7" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2090" s="7" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2091" s="7" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2092" s="7" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2093" s="7" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2094" s="7" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2095" s="7" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2096" s="7" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2097" s="7" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2098" s="7" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2099" s="7" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2100" s="7" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2101" s="7" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2102" s="7" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2103" s="7" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2104" s="7" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2105" s="7" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2106" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2107" s="7" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2108" s="7" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2109" s="7" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2110" s="7" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2111" s="7" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2112" s="7" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2113" s="7" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2114" s="7" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2115" s="7" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2116" s="7" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2117" s="7" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2118" s="7" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2119" s="7" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2120" s="7" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2121" s="7" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2122" s="7" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2123" s="7" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2124" s="7" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2125" s="7" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2126" s="7" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2127" s="7" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2128" s="7" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2129" s="7" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2130" s="7" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2131" s="7" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2132" s="7" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2133" s="7" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2134" s="7" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2135" s="7" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2136" s="7" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2137" s="7" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2138" s="7" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2139" s="7" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2140" s="7" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2141" s="7" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2142" s="7" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2143" s="7" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2144" s="7" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2145" s="7" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2146" s="7" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2147" s="7" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2148" s="7" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2149" s="7" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2150" s="7" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2151" s="7" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2152" s="7" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2153" s="7" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2154" s="7" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2155" s="7" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2156" s="7" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2157" s="7" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2158" s="7" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2159" s="7" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2160" s="7" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2161" s="7" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2162" s="7" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2163" s="7" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2164" s="7" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2165" s="7" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2166" s="7" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2167" s="7" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2168" s="7" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2169" s="7" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2170" s="7" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2171" s="7" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2172" s="7" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2173" s="7" t="s">
+        <v>1572</v>
       </c>
     </row>
   </sheetData>
@@ -16547,11 +18255,2393 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B473"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="7" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="7" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="7" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="7" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="7" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="7" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="7" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="7" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="7" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="7" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="7" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="7" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="7" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="7" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="7" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="7" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="7" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="7" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="7" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="7" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="7" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="7" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="7" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="7" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="7" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="7" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="7" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="7" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="7" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="7" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="7" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="7" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="7" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="7" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="7" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" s="7" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B94" s="7" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="7" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B101" s="7" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B102" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B103" s="7" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B104" s="7" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B105" s="7" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="7" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B107" s="7" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B108" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B109" s="7" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B110" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B111" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B112" s="7" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B113" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B114" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B115" s="7" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B116" s="7" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B117" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B118" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B119" s="7" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B120" s="7" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B121" s="7" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B122" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B123" s="7" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B124" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B125" s="7" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B126" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B127" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B128" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B129" s="7" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B130" s="7" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B131" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B132" s="7" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B133" s="7" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B134" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B135" s="7" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B136" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B137" s="7" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B138" s="7" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B139" s="7" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B140" s="7" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B141" s="7" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B142" s="7" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B143" s="7" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B144" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B145" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B146" s="7" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B147" s="7" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B148" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B149" s="7" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B150" s="7" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B151" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B152" s="7" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B153" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B154" s="7" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B155" s="7" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B156" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B157" s="7" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B158" s="7" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B159" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B160" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B161" s="7" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B162" s="7" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B163" s="7" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B164" s="7" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B165" s="7" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B166" s="7" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B167" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B168" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B169" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B170" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B171" s="7" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B172" s="7" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B173" s="7" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B174" s="7" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B175" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B176" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B177" s="7" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B178" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B179" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B180" s="7" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B181" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B182" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B183" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B184" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B185" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B186" s="7" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B187" s="7" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B188" s="7" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B189" s="7" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B190" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B191" s="7" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B192" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B193" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B194" s="7" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B195" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B196" s="7" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B197" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B198" s="7" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B199" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B200" s="7" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B201" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B202" s="7" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B203" s="7" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B204" s="7" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B205" s="7" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B206" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B207" s="7" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B208" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B209" s="7" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B210" s="7" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B211" s="7" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B212" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B213" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B214" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B215" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B216" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B217" s="7" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B218" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B219" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B220" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B221" s="7" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B222" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B223" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B224" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B225" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B226" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B227" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B228" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B229" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B230" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B231" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B232" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B233" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B234" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B235" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B236" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B237" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B238" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B239" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B240" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B241" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B242" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B243" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B244" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B245" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B246" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B247" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B248" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B249" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B250" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B251" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B252" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B253" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B254" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B255" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B256" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B257" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B258" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B259" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B260" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B261" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B262" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B263" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B264" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B265" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B266" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B267" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B268" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B269" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B270" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B271" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B272" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B273" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B274" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B275" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B276" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B277" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B278" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B279" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B280" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B281" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B282" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B283" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B284" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B285" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B286" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B287" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B288" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B289" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B290" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B291" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B292" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B293" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B294" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B295" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B296" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B297" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B298" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B299" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B300" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B301" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B302" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B303" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B304" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B305" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B306" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B307" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B308" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B309" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B310" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B311" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B312" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B313" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B314" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B315" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B316" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B317" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B318" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B319" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B320" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B321" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B322" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B323" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B324" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B325" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B326" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B327" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B328" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B329" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B330" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B331" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B332" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B333" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B334" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B335" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B336" s="7" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B337" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B338" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B339" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B340" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B341" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B342" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B343" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B344" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B345" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B346" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B347" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B348" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B349" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B350" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B351" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B352" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B353" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B354" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B355" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B356" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B357" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B358" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B359" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B360" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B361" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B362" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B363" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B364" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B365" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B366" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B367" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B368" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B369" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B370" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B371" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B372" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B373" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B374" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B375" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B376" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B377" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B378" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B379" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B380" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B381" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B382" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B383" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B384" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B385" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B386" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B387" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B388" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B389" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B390" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B391" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B392" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B393" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B394" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B395" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B396" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B397" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B398" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B399" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B400" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B401" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B402" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B403" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B404" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B405" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B406" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B407" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B408" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B409" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B410" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B411" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B412" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B413" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B414" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B415" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B416" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B417" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B418" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B419" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B420" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B421" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B422" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B423" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B424" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B425" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B426" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B427" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B428" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B429" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B430" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B431" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B432" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B433" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B434" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B435" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B436" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B437" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B438" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B439" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B440" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B441" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B442" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B443" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B444" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B445" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B446" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B447" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B448" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B449" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B450" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B451" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B452" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B453" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B454" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B455" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B456" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B457" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B458" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B459" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B460" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B461" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B462" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B463" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B464" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B465" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B466" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B467" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B468" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B469" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B470" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B471" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B472" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B473" s="7" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:D469"/>
   <sheetViews>
-    <sheetView topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="C468" sqref="C468"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18991,7 +23081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:D631"/>
@@ -21901,7 +25991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:C1385"/>
@@ -26857,13 +30947,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:D1777"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:B202"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34074,13 +38164,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E1980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34569,7 +38659,7 @@
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="5" t="s">
         <v>1476</v>
       </c>
     </row>
@@ -35680,2838 +39770,2852 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B1:E471"/>
+  <dimension ref="B1:K471"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="21.625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="15" style="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>2086</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" ht="87" x14ac:dyDescent="1">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="J12" s="11" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="90" x14ac:dyDescent="1.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="J13" s="11" t="s">
+        <v>2182</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>1021</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>2087</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>1219</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>486</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>2088</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>603</v>
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>2089</v>
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>2090</v>
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>2091</v>
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>2092</v>
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>473</v>
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>2093</v>
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>33</v>
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>2094</v>
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
         <v>2095</v>
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" t="s">
         <v>1284</v>
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
         <v>1217</v>
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" t="s">
         <v>719</v>
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
         <v>37</v>
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>40</v>
       </c>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
         <v>1250</v>
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
         <v>41</v>
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
         <v>43</v>
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
         <v>2096</v>
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
         <v>44</v>
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>46</v>
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" t="s">
         <v>48</v>
       </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" t="s">
         <v>49</v>
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" t="s">
         <v>50</v>
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" t="s">
         <v>51</v>
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>2097</v>
       </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" t="s">
         <v>53</v>
       </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
         <v>54</v>
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" t="s">
         <v>2098</v>
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" t="s">
         <v>55</v>
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" t="s">
         <v>56</v>
       </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" t="s">
         <v>58</v>
       </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" t="s">
         <v>59</v>
       </c>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" t="s">
         <v>60</v>
       </c>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
         <v>61</v>
       </c>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" t="s">
         <v>2099</v>
       </c>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" t="s">
         <v>2100</v>
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" t="s">
         <v>62</v>
       </c>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" t="s">
         <v>608</v>
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" t="s">
         <v>1231</v>
       </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" t="s">
         <v>1227</v>
       </c>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" t="s">
         <v>63</v>
       </c>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" t="s">
         <v>64</v>
       </c>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" t="s">
         <v>434</v>
       </c>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" t="s">
         <v>65</v>
       </c>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" t="s">
         <v>2101</v>
       </c>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" t="s">
         <v>419</v>
       </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
         <v>66</v>
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
         <v>67</v>
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
         <v>68</v>
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
         <v>69</v>
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
         <v>70</v>
       </c>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>702</v>
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
         <v>71</v>
       </c>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" t="s">
         <v>2102</v>
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" t="s">
         <v>2103</v>
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
         <v>72</v>
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
         <v>2104</v>
       </c>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>498</v>
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" t="s">
         <v>73</v>
       </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
         <v>74</v>
       </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" t="s">
         <v>1760</v>
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" t="s">
         <v>75</v>
       </c>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" t="s">
         <v>413</v>
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" t="s">
         <v>76</v>
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" t="s">
         <v>77</v>
       </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
         <v>2105</v>
       </c>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
         <v>78</v>
       </c>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
         <v>79</v>
       </c>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
         <v>2106</v>
       </c>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" t="s">
         <v>80</v>
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" t="s">
         <v>81</v>
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="s">
         <v>82</v>
       </c>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="s">
         <v>83</v>
       </c>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="s">
         <v>490</v>
       </c>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="s">
         <v>2107</v>
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" t="s">
         <v>84</v>
       </c>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" t="s">
         <v>466</v>
       </c>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" t="s">
         <v>2108</v>
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" t="s">
         <v>85</v>
       </c>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" t="s">
         <v>2109</v>
       </c>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" t="s">
         <v>86</v>
       </c>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" t="s">
         <v>2110</v>
       </c>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" t="s">
         <v>87</v>
       </c>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" t="s">
         <v>88</v>
       </c>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" t="s">
         <v>2111</v>
       </c>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" t="s">
         <v>2112</v>
       </c>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" t="s">
         <v>2059</v>
       </c>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" t="s">
         <v>89</v>
       </c>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" t="s">
         <v>2113</v>
       </c>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" t="s">
         <v>90</v>
       </c>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" t="s">
         <v>693</v>
       </c>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" t="s">
         <v>91</v>
       </c>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" t="s">
         <v>92</v>
       </c>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" t="s">
         <v>93</v>
       </c>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" t="s">
         <v>94</v>
       </c>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" t="s">
         <v>95</v>
       </c>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" t="s">
         <v>96</v>
       </c>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" t="s">
         <v>97</v>
       </c>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" t="s">
         <v>2114</v>
       </c>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" t="s">
         <v>366</v>
       </c>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" t="s">
         <v>98</v>
       </c>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" t="s">
         <v>99</v>
       </c>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" t="s">
         <v>100</v>
       </c>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" t="s">
         <v>101</v>
       </c>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" t="s">
         <v>102</v>
       </c>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" t="s">
         <v>103</v>
       </c>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" t="s">
         <v>104</v>
       </c>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" t="s">
         <v>105</v>
       </c>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" t="s">
         <v>106</v>
       </c>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" t="s">
         <v>107</v>
       </c>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" t="s">
         <v>108</v>
       </c>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" t="s">
         <v>109</v>
       </c>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" t="s">
         <v>110</v>
       </c>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" t="s">
         <v>111</v>
       </c>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" t="s">
         <v>571</v>
       </c>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" t="s">
         <v>112</v>
       </c>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" t="s">
         <v>850</v>
       </c>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" t="s">
         <v>113</v>
       </c>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" t="s">
         <v>114</v>
       </c>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" t="s">
         <v>115</v>
       </c>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" t="s">
         <v>116</v>
       </c>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" t="s">
         <v>117</v>
       </c>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" t="s">
         <v>118</v>
       </c>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" t="s">
         <v>119</v>
       </c>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" t="s">
         <v>120</v>
       </c>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" t="s">
         <v>2115</v>
       </c>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" t="s">
         <v>121</v>
       </c>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" t="s">
         <v>122</v>
       </c>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" t="s">
         <v>123</v>
       </c>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" t="s">
         <v>124</v>
       </c>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" t="s">
         <v>125</v>
       </c>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" t="s">
         <v>126</v>
       </c>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" t="s">
         <v>127</v>
       </c>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" t="s">
         <v>128</v>
       </c>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" t="s">
         <v>129</v>
       </c>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" t="s">
         <v>130</v>
       </c>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" t="s">
         <v>131</v>
       </c>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" t="s">
         <v>2116</v>
       </c>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" t="s">
         <v>132</v>
       </c>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" t="s">
         <v>2117</v>
       </c>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" t="s">
         <v>1316</v>
       </c>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" t="s">
         <v>133</v>
       </c>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" t="s">
         <v>134</v>
       </c>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" t="s">
         <v>135</v>
       </c>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" t="s">
         <v>136</v>
       </c>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" t="s">
         <v>137</v>
       </c>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" t="s">
         <v>138</v>
       </c>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" t="s">
         <v>139</v>
       </c>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" t="s">
         <v>140</v>
       </c>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" t="s">
         <v>141</v>
       </c>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" t="s">
         <v>142</v>
       </c>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" t="s">
         <v>2118</v>
       </c>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" t="s">
         <v>2119</v>
       </c>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" t="s">
         <v>143</v>
       </c>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" t="s">
         <v>2120</v>
       </c>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" t="s">
         <v>144</v>
       </c>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" t="s">
         <v>2121</v>
       </c>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" t="s">
         <v>145</v>
       </c>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" t="s">
         <v>146</v>
       </c>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" t="s">
         <v>147</v>
       </c>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" t="s">
         <v>148</v>
       </c>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" t="s">
         <v>149</v>
       </c>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" t="s">
         <v>150</v>
       </c>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" t="s">
         <v>2058</v>
       </c>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" t="s">
         <v>151</v>
       </c>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" t="s">
         <v>152</v>
       </c>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" t="s">
         <v>842</v>
       </c>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" t="s">
         <v>2072</v>
       </c>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" t="s">
         <v>1281</v>
       </c>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" t="s">
         <v>153</v>
       </c>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" t="s">
         <v>154</v>
       </c>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" t="s">
         <v>2122</v>
       </c>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" t="s">
         <v>155</v>
       </c>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" t="s">
         <v>2123</v>
       </c>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" t="s">
         <v>156</v>
       </c>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" t="s">
         <v>157</v>
       </c>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" t="s">
         <v>158</v>
       </c>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" t="s">
         <v>2124</v>
       </c>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" t="s">
         <v>159</v>
       </c>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" t="s">
         <v>160</v>
       </c>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" t="s">
         <v>161</v>
       </c>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B232" t="s">
         <v>162</v>
       </c>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B233" t="s">
         <v>163</v>
       </c>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B234" t="s">
         <v>164</v>
       </c>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B235" t="s">
         <v>165</v>
       </c>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B236" t="s">
         <v>166</v>
       </c>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B237" t="s">
         <v>167</v>
       </c>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B238" t="s">
         <v>168</v>
       </c>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B239" t="s">
         <v>169</v>
       </c>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B240" t="s">
         <v>2125</v>
       </c>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B241" t="s">
         <v>2126</v>
       </c>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B242" t="s">
         <v>170</v>
       </c>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B243" t="s">
         <v>591</v>
       </c>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B244" t="s">
         <v>171</v>
       </c>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B245" t="s">
         <v>172</v>
       </c>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B246" t="s">
         <v>173</v>
       </c>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B247" t="s">
         <v>174</v>
       </c>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B248" t="s">
         <v>175</v>
       </c>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B249" t="s">
         <v>176</v>
       </c>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B250" t="s">
         <v>177</v>
       </c>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B251" t="s">
         <v>178</v>
       </c>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B252" t="s">
         <v>1233</v>
       </c>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B253" t="s">
         <v>1232</v>
       </c>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B254" t="s">
         <v>2127</v>
       </c>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B255" t="s">
         <v>179</v>
       </c>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B256" t="s">
         <v>2128</v>
       </c>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B257" t="s">
         <v>552</v>
       </c>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B258" t="s">
         <v>180</v>
       </c>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B259" t="s">
         <v>2129</v>
       </c>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B260" t="s">
         <v>181</v>
       </c>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B261" t="s">
         <v>182</v>
       </c>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B262" t="s">
         <v>183</v>
       </c>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B263" t="s">
         <v>1089</v>
       </c>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B264" t="s">
         <v>184</v>
       </c>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B265" t="s">
         <v>185</v>
       </c>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B266" t="s">
         <v>186</v>
       </c>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B267" t="s">
         <v>2130</v>
       </c>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B268" t="s">
         <v>2131</v>
       </c>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B269" t="s">
         <v>187</v>
       </c>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B270" t="s">
         <v>2132</v>
       </c>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B271" t="s">
         <v>2133</v>
       </c>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B272" t="s">
         <v>1246</v>
       </c>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B273" t="s">
         <v>188</v>
       </c>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B274" t="s">
         <v>189</v>
       </c>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B275" t="s">
         <v>2134</v>
       </c>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B276" t="s">
         <v>190</v>
       </c>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B277" t="s">
         <v>191</v>
       </c>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B278" t="s">
         <v>2063</v>
       </c>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B279" t="s">
         <v>2135</v>
       </c>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B280" t="s">
         <v>2136</v>
       </c>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B281" t="s">
         <v>192</v>
       </c>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B282" t="s">
         <v>193</v>
       </c>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B283" t="s">
         <v>194</v>
       </c>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B284" t="s">
         <v>2137</v>
       </c>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B285" t="s">
         <v>2138</v>
       </c>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B286" t="s">
         <v>195</v>
       </c>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B287" t="s">
         <v>1224</v>
       </c>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B288" t="s">
         <v>2139</v>
       </c>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B289" t="s">
         <v>196</v>
       </c>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B290" t="s">
         <v>197</v>
       </c>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B291" t="s">
         <v>198</v>
       </c>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B292" t="s">
         <v>2140</v>
       </c>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B293" t="s">
         <v>199</v>
       </c>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B294" t="s">
         <v>327</v>
       </c>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B295" t="s">
         <v>200</v>
       </c>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B296" t="s">
         <v>1323</v>
       </c>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B297" t="s">
         <v>201</v>
       </c>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B298" t="s">
         <v>202</v>
       </c>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B299" t="s">
         <v>203</v>
       </c>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B300" t="s">
         <v>1245</v>
       </c>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B301" t="s">
         <v>204</v>
       </c>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B302" t="s">
         <v>205</v>
       </c>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B303" t="s">
         <v>206</v>
       </c>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B304" t="s">
         <v>207</v>
       </c>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B305" t="s">
         <v>208</v>
       </c>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B306" t="s">
         <v>209</v>
       </c>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B307" t="s">
         <v>210</v>
       </c>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B308" t="s">
         <v>211</v>
       </c>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B309" t="s">
         <v>212</v>
       </c>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B310" t="s">
         <v>213</v>
       </c>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B311" t="s">
         <v>1280</v>
       </c>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B312" t="s">
         <v>468</v>
       </c>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B313" t="s">
         <v>639</v>
       </c>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B314" t="s">
         <v>214</v>
       </c>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B315" t="s">
         <v>215</v>
       </c>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B316" t="s">
         <v>216</v>
       </c>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B317" t="s">
         <v>217</v>
       </c>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B318" t="s">
         <v>218</v>
       </c>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B319" t="s">
         <v>219</v>
       </c>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B320" t="s">
         <v>546</v>
       </c>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B321" t="s">
         <v>2141</v>
       </c>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B322" t="s">
         <v>220</v>
       </c>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B323" t="s">
         <v>221</v>
       </c>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B324" t="s">
         <v>2142</v>
       </c>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B325" t="s">
         <v>2143</v>
       </c>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B326" t="s">
         <v>2078</v>
       </c>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B327" t="s">
         <v>1272</v>
       </c>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B328" t="s">
         <v>222</v>
       </c>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B329" t="s">
         <v>223</v>
       </c>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B330" t="s">
         <v>2144</v>
       </c>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B331" t="s">
         <v>224</v>
       </c>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" t="s">
         <v>225</v>
       </c>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" t="s">
         <v>226</v>
       </c>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" t="s">
         <v>227</v>
       </c>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" t="s">
         <v>2145</v>
       </c>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" t="s">
         <v>228</v>
       </c>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" t="s">
         <v>229</v>
       </c>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" t="s">
         <v>230</v>
       </c>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" t="s">
         <v>231</v>
       </c>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B340" t="s">
         <v>232</v>
       </c>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B341" t="s">
         <v>233</v>
       </c>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B342" t="s">
         <v>234</v>
       </c>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" t="s">
         <v>235</v>
       </c>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B344" t="s">
         <v>236</v>
       </c>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B345" t="s">
         <v>237</v>
       </c>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" t="s">
         <v>238</v>
       </c>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B347" t="s">
         <v>239</v>
       </c>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B348" t="s">
         <v>2146</v>
       </c>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B349" t="s">
         <v>240</v>
       </c>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B350" t="s">
         <v>241</v>
       </c>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B351" t="s">
         <v>2147</v>
       </c>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" t="s">
         <v>2084</v>
       </c>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" t="s">
         <v>2148</v>
       </c>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B354" t="s">
         <v>242</v>
       </c>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B355" t="s">
         <v>243</v>
       </c>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B356" t="s">
         <v>244</v>
       </c>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B357" t="s">
         <v>245</v>
       </c>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B358" t="s">
         <v>246</v>
       </c>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B359" t="s">
         <v>247</v>
       </c>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B360" t="s">
         <v>248</v>
       </c>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B361" t="s">
         <v>249</v>
       </c>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B362" t="s">
         <v>250</v>
       </c>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B363" t="s">
         <v>251</v>
       </c>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B364" t="s">
         <v>252</v>
       </c>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B365" t="s">
         <v>253</v>
       </c>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B366" t="s">
         <v>2149</v>
       </c>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B367" t="s">
         <v>1244</v>
       </c>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B368" t="s">
         <v>522</v>
       </c>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B369" t="s">
         <v>254</v>
       </c>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B370" t="s">
         <v>2150</v>
       </c>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B371" t="s">
         <v>255</v>
       </c>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B372" t="s">
         <v>256</v>
       </c>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B373" t="s">
         <v>2151</v>
       </c>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B374" t="s">
         <v>257</v>
       </c>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B375" t="s">
         <v>258</v>
       </c>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B376" t="s">
         <v>259</v>
       </c>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B377" t="s">
         <v>260</v>
       </c>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B378" t="s">
         <v>2152</v>
       </c>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B379" t="s">
         <v>2153</v>
       </c>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B380" t="s">
         <v>261</v>
       </c>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B381" t="s">
         <v>2154</v>
       </c>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B382" t="s">
         <v>1277</v>
       </c>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B383" t="s">
         <v>2155</v>
       </c>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B384" t="s">
         <v>262</v>
       </c>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B385" t="s">
         <v>263</v>
       </c>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B386" t="s">
         <v>264</v>
       </c>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B387" t="s">
         <v>265</v>
       </c>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B388" t="s">
         <v>2156</v>
       </c>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B389" t="s">
         <v>266</v>
       </c>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B390" t="s">
         <v>267</v>
       </c>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B391" t="s">
         <v>1215</v>
       </c>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B392" t="s">
         <v>268</v>
       </c>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B393" t="s">
         <v>269</v>
       </c>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B394" t="s">
         <v>270</v>
       </c>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B395" t="s">
         <v>753</v>
       </c>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B396" t="s">
         <v>1218</v>
       </c>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B397" t="s">
         <v>271</v>
       </c>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B398" t="s">
         <v>272</v>
       </c>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B399" t="s">
         <v>273</v>
       </c>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B400" t="s">
         <v>2157</v>
       </c>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B401" t="s">
         <v>274</v>
       </c>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B402" t="s">
         <v>275</v>
       </c>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B403" t="s">
         <v>276</v>
       </c>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B404" t="s">
         <v>277</v>
       </c>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B405" t="s">
         <v>278</v>
       </c>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B406" t="s">
         <v>279</v>
       </c>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B407" t="s">
         <v>2158</v>
       </c>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B408" t="s">
         <v>280</v>
       </c>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B409" t="s">
         <v>1275</v>
       </c>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B410" t="s">
         <v>281</v>
       </c>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B411" t="s">
         <v>2159</v>
       </c>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B412" t="s">
         <v>282</v>
       </c>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B413" t="s">
         <v>283</v>
       </c>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B414" t="s">
         <v>364</v>
       </c>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B415" t="s">
         <v>284</v>
       </c>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B416" t="s">
         <v>285</v>
       </c>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B417" t="s">
         <v>1257</v>
       </c>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B418" t="s">
         <v>2160</v>
       </c>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B419" t="s">
         <v>286</v>
       </c>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B420" t="s">
         <v>287</v>
       </c>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B421" t="s">
         <v>288</v>
       </c>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="422" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B422" t="s">
         <v>289</v>
       </c>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="423" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B423" t="s">
         <v>2161</v>
       </c>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="424" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B424" t="s">
         <v>290</v>
       </c>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="425" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B425" t="s">
         <v>291</v>
       </c>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="426" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B426" t="s">
         <v>292</v>
       </c>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="427" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B427" t="s">
         <v>2162</v>
       </c>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="428" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B428" t="s">
         <v>2163</v>
       </c>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="429" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B429" t="s">
         <v>2080</v>
       </c>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="430" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B430" t="s">
         <v>1240</v>
       </c>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="431" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B431" t="s">
         <v>2164</v>
       </c>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="432" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B432" t="s">
         <v>2165</v>
       </c>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B433" t="s">
         <v>293</v>
       </c>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="434" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B434" t="s">
         <v>2166</v>
       </c>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B435" t="s">
         <v>294</v>
       </c>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="436" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B436" t="s">
         <v>295</v>
       </c>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="437" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B437" t="s">
         <v>296</v>
       </c>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B438" t="s">
         <v>1216</v>
       </c>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="439" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B439" t="s">
         <v>297</v>
       </c>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="440" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B440" t="s">
         <v>298</v>
       </c>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="441" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B441" t="s">
         <v>299</v>
       </c>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="442" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B442" t="s">
         <v>300</v>
       </c>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="443" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B443" t="s">
         <v>301</v>
       </c>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="444" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B444" t="s">
         <v>302</v>
       </c>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="445" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B445" t="s">
         <v>2167</v>
       </c>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="446" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B446" t="s">
         <v>303</v>
       </c>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B447" t="s">
         <v>304</v>
       </c>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="448" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B448" t="s">
         <v>884</v>
       </c>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="449" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B449" t="s">
         <v>305</v>
       </c>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="450" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B450" t="s">
         <v>306</v>
       </c>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="451" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B451" t="s">
         <v>307</v>
       </c>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="452" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B452" t="s">
         <v>308</v>
       </c>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="453" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B453" t="s">
         <v>309</v>
       </c>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="454" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B454" t="s">
         <v>310</v>
       </c>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="455" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B455" t="s">
         <v>311</v>
       </c>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="456" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B456" t="s">
         <v>312</v>
       </c>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="457" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B457" t="s">
         <v>313</v>
       </c>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="458" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B458" t="s">
         <v>314</v>
       </c>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="459" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B459" t="s">
         <v>315</v>
       </c>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="460" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B460" t="s">
         <v>316</v>
       </c>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="461" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B461" t="s">
         <v>317</v>
       </c>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="462" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B462" t="s">
         <v>318</v>
       </c>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="463" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B463" t="s">
         <v>319</v>
       </c>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="464" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B464" t="s">
         <v>320</v>
       </c>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B465" t="s">
         <v>2168</v>
       </c>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B466" t="s">
         <v>321</v>
       </c>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B467" t="s">
         <v>322</v>
       </c>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B468" t="s">
         <v>604</v>
       </c>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B469" t="s">
         <v>2082</v>
       </c>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B470" t="s">
         <v>2169</v>
       </c>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B471" t="s">
         <v>1278</v>
       </c>
@@ -38520,20 +42624,60 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="45" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.75" style="14" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="14" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="14" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="180" x14ac:dyDescent="0.15">
+      <c r="B3" s="17" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
